--- a/攒机.xlsx
+++ b/攒机.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="有价格信息" sheetId="1" r:id="rId1"/>
@@ -15,28 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
-  <si>
-    <t>1.用途：打游戏、剪视频、写代码。</t>
-  </si>
-  <si>
-    <t>2.预算：单主机 1.5W以内最好 越低越好。</t>
-  </si>
-  <si>
-    <t>3.显示器：已经买了 LG27gp95r</t>
-  </si>
-  <si>
-    <t>4.外观：海景房白光。</t>
-  </si>
-  <si>
-    <t>5.其它要求：1、不超频使用 2、风扇声音越小越好。3、机箱不用换：联力L216白色就行。4、主板最好有WIFI 蓝牙。</t>
-  </si>
-  <si>
-    <t>可以帮忙分析下配置是否合理吗？</t>
-  </si>
-  <si>
-    <t>想配置一套纯白海景房。</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="83">
   <si>
     <t>显示器</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -184,10 +163,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主要是担心显卡和风冷不太好。噪音大。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>总计:</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -300,10 +275,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>24293元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>致钛5000 1T 国产长江存储颗粒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -317,6 +288,62 @@
   </si>
   <si>
     <t>备注信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12月产的显卡 顺丰到付 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这款机箱很推荐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水冷拆机风扇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿斯加特女武神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主板电源延长线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显卡电源直出定制线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝定制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25034元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较好看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联力太贵 乔思伯没反转 推荐淘宝店铺 泡泡不鸽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直盘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -713,49 +740,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="66.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -763,16 +790,16 @@
         <v>3949</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -780,16 +807,16 @@
         <v>2200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -797,13 +824,13 @@
         <v>13608</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>69</v>
@@ -814,22 +841,22 @@
         <v>568.41999999999996</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -837,16 +864,16 @@
         <v>367.8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -854,16 +881,16 @@
         <v>577</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -871,16 +898,16 @@
         <v>1081</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -888,207 +915,210 @@
         <v>298</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
-        <v>482</v>
+        <v>648</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
-        <v>867</v>
+        <v>482</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
-        <v>0</v>
+        <v>867</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>26</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
+        <v>241</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
-        <v>6.9</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>43</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
         <v>0</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D18" s="3"/>
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="B19" s="1">
-        <v>20344</v>
-      </c>
-      <c r="C19" s="1">
-        <v>6530</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>93</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D20" s="3"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="C21" s="1">
+        <v>21085</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H22" s="1" t="s">
-        <v>46</v>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="3" t="s">
-        <v>2</v>
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="C28" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1" location="crumb-wrap"/>
-    <hyperlink ref="G15" r:id="rId2" location="crumb-wrap"/>
+    <hyperlink ref="G16" r:id="rId2" location="crumb-wrap"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1099,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
@@ -1119,31 +1149,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1151,16 +1181,16 @@
         <v>3949</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1168,16 +1198,16 @@
         <v>2200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1185,16 +1215,16 @@
         <v>13608</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1202,22 +1232,22 @@
         <v>568.41999999999996</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1225,16 +1255,16 @@
         <v>367.8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1242,16 +1272,16 @@
         <v>577</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1259,16 +1289,16 @@
         <v>1081</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1276,16 +1306,16 @@
         <v>298</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1293,16 +1323,16 @@
         <v>482</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1310,13 +1340,13 @@
         <v>867</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1324,13 +1354,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1338,16 +1368,16 @@
         <v>241</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1355,16 +1385,16 @@
         <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1372,13 +1402,13 @@
         <v>6.9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -1387,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1403,7 +1433,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>21223.212</v>
@@ -1412,10 +1442,10 @@
         <v>6530</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">

--- a/攒机.xlsx
+++ b/攒机.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
   <si>
     <t>显示器</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -139,170 +139,158 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>原价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固态2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金百达银爵ARGB 长鑫颗粒 3600 8GX2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达墨天秤座 2T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JD购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先马XF1000W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含显示器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>含显示器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集线器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/10021949440667.html#crumb-wrap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要白色带WIFI的主板 2个ARGB 一个RGB接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利民ARGBHUB 二合一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅浚积木风扇 4正转 3反转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13600K散片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下中关村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七彩虹电源延长线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B站抽奖到的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术贴扎带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术贴扎带白色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲鱼购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联力太贵 乔思伯没反转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带集显支持PR预览加速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持国产颗粒 RGB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4090金属大师OC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月产的显卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先马KW360DW 电源赠品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25172元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康威视西数监控硬盘(垂直)4T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>致钛5000 1T 国产长江存储颗粒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达墨天秤座 2T 国产长江存储颗粒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金百达银爵ARGB 3600 8GX2 国产长鑫颗粒 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12月产的显卡 顺丰到付 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这款机箱很推荐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>内存</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>原价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>固态2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金百达银爵ARGB 长鑫颗粒 3600 8GX2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>达墨天秤座 2T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JD购买</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>总计:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NV显卡等元旦看看</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先马XF1000W</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不含显示器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>含显示器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集线器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/10021949440667.html#crumb-wrap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>想要白色带WIFI的主板 2个ARGB 一个RGB接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利民ARGBHUB 二合一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅浚积木风扇 4正转 3反转</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13600K散片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线下中关村</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>延长线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>七彩虹电源延长线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B站抽奖到的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔术贴扎带</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔术贴扎带白色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闲鱼购买</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联力太贵 乔思伯没反转</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带集显支持PR预览加速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持国产颗粒 RGB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4090金属大师OC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月产的显卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先马KW360DW 电源赠品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25172元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海康威视西数监控硬盘(垂直)4T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>致钛5000 1T 国产长江存储颗粒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>达墨天秤座 2T 国产长江存储颗粒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">金百达银爵ARGB 3600 8GX2 国产长鑫颗粒 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">12月产的显卡 顺丰到付 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这款机箱很推荐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -311,10 +299,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阿斯加特女武神</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>主板电源延长线</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -327,15 +311,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>25034元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>淘宝购买</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>比较好看</t>
+    <t>垂直盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持国产颗粒 RGB 买小了 已挂咸鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较好看 我不超频用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿斯加特女武神3600 16GX2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存 挂咸鱼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24736元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色装甲 WIFI 2个ARGB 一个RGB接口。跑不满CPU？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是原生ATX3.0但是送水冷。可以看看海韵或者鑫谷ATX3.0的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源送的不花钱</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -343,7 +355,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>垂直盘</t>
+    <t>正常是需要花钱买的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -351,7 +363,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +418,14 @@
       <charset val="134"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -428,13 +448,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -740,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
@@ -753,15 +774,14 @@
     <col min="3" max="3" width="25.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="66.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="1"/>
+    <col min="6" max="6" width="70.81640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -779,13 +799,10 @@
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>3949</v>
       </c>
@@ -798,11 +815,8 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>2200</v>
       </c>
@@ -810,33 +824,33 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>13608</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>568.41999999999996</v>
       </c>
@@ -850,16 +864,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>367.8</v>
       </c>
@@ -876,24 +884,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>577</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>1081</v>
       </c>
@@ -907,44 +915,42 @@
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>298</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F10" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>648</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>482</v>
       </c>
@@ -958,24 +964,27 @@
         <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>867</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>0</v>
       </c>
@@ -983,13 +992,16 @@
         <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F14" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>241</v>
       </c>
@@ -997,131 +1009,115 @@
         <v>24</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>6.9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>93</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D20" s="3"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1">
-        <v>21085</v>
+        <v>20787</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" s="1">
         <v>-55</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="G6" r:id="rId1" location="crumb-wrap"/>
-    <hyperlink ref="G16" r:id="rId2" location="crumb-wrap"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1149,7 +1145,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1173,7 +1169,7 @@
         <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1201,13 +1197,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1215,16 +1211,16 @@
         <v>13608</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1258,7 +1254,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -1275,7 +1271,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -1298,7 +1294,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1309,13 +1305,13 @@
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1326,7 +1322,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
@@ -1343,7 +1339,7 @@
         <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1357,7 +1353,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -1371,13 +1367,13 @@
         <v>24</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1385,16 +1381,16 @@
         <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1402,10 +1398,10 @@
         <v>6.9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
@@ -1417,13 +1413,13 @@
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -1433,7 +1429,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1">
         <v>21223.212</v>
@@ -1442,10 +1438,10 @@
         <v>6530</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">

--- a/攒机.xlsx
+++ b/攒机.xlsx
@@ -15,7 +15,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
+  <si>
+    <t>1.用途：打游戏、剪视频、写代码。</t>
+  </si>
+  <si>
+    <t>2.预算：单主机 1.5W以内最好 越低越好。</t>
+  </si>
+  <si>
+    <t>3.显示器：已经买了 LG27gp95r</t>
+  </si>
+  <si>
+    <t>4.外观：海景房白光。</t>
+  </si>
+  <si>
+    <t>5.其它要求：1、不超频使用 2、风扇声音越小越好。3、机箱不用换：联力L216白色就行。4、主板最好有WIFI 蓝牙。</t>
+  </si>
+  <si>
+    <t>可以帮忙分析下配置是否合理吗？</t>
+  </si>
+  <si>
+    <t>想配置一套纯白海景房。</t>
+  </si>
   <si>
     <t>显示器</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -92,18 +113,78 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>机械硬盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康威视西数监控硬盘4T</t>
+  </si>
+  <si>
+    <t>不知道有没有更合适的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风扇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">支持国产颗粒 图便宜 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>散热</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>降价周期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>微星B660M迫击炮WIFI D4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联力L216白色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>内存</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>机械硬盘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海康威视西数监控硬盘4T</t>
-  </si>
-  <si>
-    <t>不知道有没有更合适的</t>
+    <t>原价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固态2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金百达银爵ARGB 长鑫颗粒 3600 8GX2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达墨天秤座 2T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JD购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是担心显卡和风冷不太好。噪音大。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计:</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -111,7 +192,159 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>风扇</t>
+    <t>先马XF1000W</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不含显示器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>含显示器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集线器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/10021949440667.html#crumb-wrap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要白色带WIFI的主板 2个ARGB 一个RGB接口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>利民ARGBHUB 二合一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅浚积木风扇 4正转 3反转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13600K散片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线下中关村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延长线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>七彩虹电源延长线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B站抽奖到的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术贴扎带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术贴扎带白色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闲鱼购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联力太贵 乔思伯没反转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带集显支持PR预览加速</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持国产颗粒 RGB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4090金属大师OC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月产的显卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先马KW360DW 电源赠品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25172元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿斯加特女武神 3600 16GX2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JD购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗技G304 白色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cherry mx3.0s 白色 红轴 三模</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24664元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源赠品 图个不花钱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非原生ATX3.0 不差钱考虑别的电源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持国产颗粒 RGB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4K 144HZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垂直盘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -119,163 +352,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>散热</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>降价周期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>微星B660M迫击炮WIFI D4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联力L216白色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>固态2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金百达银爵ARGB 长鑫颗粒 3600 8GX2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>达墨天秤座 2T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JD购买</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>电源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先马XF1000W</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不含显示器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>含显示器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集线器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.jd.com/10021949440667.html#crumb-wrap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>想要白色带WIFI的主板 2个ARGB 一个RGB接口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>利民ARGBHUB 二合一</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雅浚积木风扇 4正转 3反转</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13600K散片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线下中关村</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>延长线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>七彩虹电源延长线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B站抽奖到的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔术贴扎带</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔术贴扎带白色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闲鱼购买</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>联力太贵 乔思伯没反转</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>带集显支持PR预览加速</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持国产颗粒 RGB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4090金属大师OC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月产的显卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>先马KW360DW 电源赠品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25172元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>海康威视西数监控硬盘(垂直)4T</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>致钛5000 1T 国产长江存储颗粒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>达墨天秤座 2T 国产长江存储颗粒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">金百达银爵ARGB 3600 8GX2 国产长鑫颗粒 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注信息</t>
+    <t xml:space="preserve">主要是好看 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -287,35 +364,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>内存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>水冷拆机风扇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主板电源延长线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显卡电源直出定制线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝定制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝购买</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>垂直盘</t>
+    <t>白色装甲 WIFI 2个ARGB 一个RGB接口。跑不满CPU？</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -327,22 +376,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阿斯加特女武神3600 16GX2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存 挂咸鱼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24736元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色装甲 WIFI 2个ARGB 一个RGB接口。跑不满CPU？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>不是原生ATX3.0但是送水冷。可以看看海韵或者鑫谷ATX3.0的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -356,6 +389,18 @@
   </si>
   <si>
     <t>正常是需要花钱买的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带集显支持PR预览加速。不剪视频可以用KF系列CPU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4K 144HZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯白背光需要调节</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -761,320 +806,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.81640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="14.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>3949</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2200</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>13608</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>568.41999999999996</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>367.8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
+        <v>577</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
+        <v>1081</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="1">
+        <v>298</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="1">
+        <v>669</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="1">
+        <v>482</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1">
+        <v>867</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>2200</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>13608</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>568.41999999999996</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>241</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>367.8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>577</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>1081</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>648</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>482</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>867</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>241</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>43</v>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>61</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
-        <v>6.9</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1082,37 +1139,69 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20715</v>
       </c>
       <c r="C21" s="1">
-        <v>20787</v>
+        <v>6530</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="1">
-        <v>-55</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>70</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="3" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1126,7 +1215,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="D3" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
@@ -1139,37 +1228,37 @@
     <col min="6" max="6" width="75" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="66.7265625" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="53.36328125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.6328125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1177,16 +1266,27 @@
         <v>3949</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1194,16 +1294,16 @@
         <v>2200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1211,16 +1311,19 @@
         <v>13608</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1228,22 +1331,25 @@
         <v>568.41999999999996</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1251,15 +1357,18 @@
         <v>367.8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1268,16 +1377,19 @@
         <v>577</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1285,16 +1397,19 @@
         <v>1081</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1302,33 +1417,39 @@
         <v>298</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>482</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1336,13 +1457,16 @@
         <v>867</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1353,10 +1477,13 @@
         <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1364,16 +1491,19 @@
         <v>241</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1381,16 +1511,19 @@
         <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1398,50 +1531,58 @@
         <v>6.9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G16" s="4"/>
+      <c r="I16" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D18" s="3"/>
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1">
         <v>21223.212</v>
       </c>
-      <c r="C19" s="1">
-        <v>6530</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>39</v>
+      <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">

--- a/攒机.xlsx
+++ b/攒机.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="有价格信息" sheetId="1" r:id="rId1"/>
@@ -15,28 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="99">
-  <si>
-    <t>1.用途：打游戏、剪视频、写代码。</t>
-  </si>
-  <si>
-    <t>2.预算：单主机 1.5W以内最好 越低越好。</t>
-  </si>
-  <si>
-    <t>3.显示器：已经买了 LG27gp95r</t>
-  </si>
-  <si>
-    <t>4.外观：海景房白光。</t>
-  </si>
-  <si>
-    <t>5.其它要求：1、不超频使用 2、风扇声音越小越好。3、机箱不用换：联力L216白色就行。4、主板最好有WIFI 蓝牙。</t>
-  </si>
-  <si>
-    <t>可以帮忙分析下配置是否合理吗？</t>
-  </si>
-  <si>
-    <t>想配置一套纯白海景房。</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
   <si>
     <t>显示器</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,10 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>主要是担心显卡和风冷不太好。噪音大。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>总计:</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -328,31 +303,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>电源赠品 图个不花钱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非原生ATX3.0 不差钱考虑别的电源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持国产颗粒 RGB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4K 144HZ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>垂直盘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">支持国产颗粒 图便宜 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">主要是好看 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -808,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
@@ -825,22 +780,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -848,41 +803,41 @@
         <v>3949</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -890,16 +845,16 @@
         <v>2200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -907,16 +862,16 @@
         <v>13608</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -924,16 +879,16 @@
         <v>568.41999999999996</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -941,16 +896,16 @@
         <v>367.8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -958,16 +913,16 @@
         <v>577</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -975,33 +930,33 @@
         <v>1081</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>298</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1009,16 +964,16 @@
         <v>669</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1026,16 +981,16 @@
         <v>482</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1043,16 +998,16 @@
         <v>867</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1060,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1077,16 +1032,16 @@
         <v>241</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1094,13 +1049,13 @@
         <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1108,13 +1063,13 @@
         <v>6.9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1122,16 +1077,16 @@
         <v>0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1139,7 +1094,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1">
         <v>20715</v>
@@ -1148,10 +1103,10 @@
         <v>6530</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1159,49 +1114,33 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D23" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1214,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
@@ -1228,37 +1167,37 @@
     <col min="6" max="6" width="75" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="66.7265625" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="53.36328125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="54.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="71.36328125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1266,27 +1205,30 @@
         <v>3949</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1294,16 +1236,16 @@
         <v>2200</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1311,19 +1253,19 @@
         <v>13608</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1331,25 +1273,25 @@
         <v>568.41999999999996</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1357,19 +1299,19 @@
         <v>367.8</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1377,19 +1319,19 @@
         <v>577</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1397,19 +1339,19 @@
         <v>1081</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1417,19 +1359,19 @@
         <v>298</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1437,19 +1379,19 @@
         <v>482</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1457,16 +1399,16 @@
         <v>867</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1474,16 +1416,16 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1491,19 +1433,19 @@
         <v>241</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1511,16 +1453,16 @@
         <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>80</v>
@@ -1531,61 +1473,64 @@
         <v>6.9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G16" s="4"/>
       <c r="I16" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1">
         <v>21223.212</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D20" s="3"/>
     </row>
   </sheetData>

--- a/攒机.xlsx
+++ b/攒机.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="有价格信息" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>显示器</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -299,10 +299,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>24664元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4K 144HZ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -356,6 +352,34 @@
   </si>
   <si>
     <t>纯白背光需要调节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4090定制线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Colors 虞城MOD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝网购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24754元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Colors 虞城MOD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝网定制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定制线烧了不保修，原生转接线丑烧了给保修。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -761,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
@@ -812,7 +836,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -826,7 +850,7 @@
         <v>66</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -854,7 +878,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -871,7 +895,7 @@
         <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -888,7 +912,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -939,13 +963,11 @@
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="6">
-        <v>298</v>
-      </c>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
@@ -956,7 +978,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -973,7 +995,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -990,7 +1012,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1007,7 +1029,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1024,7 +1046,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1041,7 +1063,7 @@
         <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1086,40 +1108,51 @@
         <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="3"/>
+      <c r="B20" s="1">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1">
-        <v>20715</v>
-      </c>
-      <c r="C21" s="1">
-        <v>6530</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C22" s="1">
+        <v>20805</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D22" s="3"/>
+      <c r="E22" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="3"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" s="3"/>
@@ -1141,6 +1174,9 @@
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1153,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.3"/>
@@ -1217,7 +1253,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1228,7 +1264,7 @@
         <v>69</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1265,7 +1301,7 @@
         <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1291,7 +1327,7 @@
         <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1311,7 +1347,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1371,7 +1407,7 @@
         <v>56</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
@@ -1391,7 +1427,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1408,7 +1444,7 @@
         <v>13</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1425,7 +1461,7 @@
         <v>13</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -1445,7 +1481,7 @@
         <v>54</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1465,7 +1501,7 @@
         <v>42</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1483,7 +1519,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="I16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1527,11 +1563,22 @@
         <v>61</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="3"/>
+      <c r="C20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
